--- a/data/original_files_food_webs/comparison_of_enumerations.xlsx
+++ b/data/original_files_food_webs/comparison_of_enumerations.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ema/github/data_aggregation/data/ecobase/original_files_food_webs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ema/github/data_aggregation/data/original_files_food_webs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771AF1C2-394B-A542-BC99-595A867FA326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA43B66-1DE1-344A-ADCA-90D300D133CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{FC75E5CE-809C-5349-A1FC-88B9D547CC5F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FC75E5CE-809C-5349-A1FC-88B9D547CC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="included" sheetId="1" r:id="rId1"/>
-    <sheet name="not_included" sheetId="2" r:id="rId2"/>
-    <sheet name="to_export" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="not_included" sheetId="2" r:id="rId3"/>
+    <sheet name="to_export" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="304">
   <si>
     <t>001_7GBR</t>
   </si>
@@ -386,9 +388,6 @@
     <t>060_181VI</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of the food web </t>
-  </si>
-  <si>
     <t>Heymans2014</t>
   </si>
   <si>
@@ -920,12 +919,6 @@
     <t>Used</t>
   </si>
   <si>
-    <t>TP problems</t>
-  </si>
-  <si>
-    <t>Web NA</t>
-  </si>
-  <si>
     <t>KSI_nr</t>
   </si>
   <si>
@@ -933,13 +926,37 @@
   </si>
   <si>
     <t>72(?)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Number in our data</t>
+  </si>
+  <si>
+    <t>Number in Heymans</t>
+  </si>
+  <si>
+    <t>Heymans2014 nr</t>
+  </si>
+  <si>
+    <t>Heymans2014 name</t>
+  </si>
+  <si>
+    <t>KSI nr</t>
+  </si>
+  <si>
+    <t>KSI name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -952,13 +969,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -987,13 +997,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,37 +1317,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D865AA5-165C-A74F-8019-4D8FC6CC3CCB}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1348,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1356,13 +1363,22 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1370,19 +1386,31 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1390,7 +1418,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1398,20 +1426,25 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1419,13 +1452,22 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,13 +1475,22 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1447,13 +1498,22 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1461,13 +1521,22 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1475,13 +1544,16 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1489,13 +1561,22 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1503,13 +1584,22 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1517,13 +1607,22 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1531,13 +1630,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1545,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -1553,13 +1655,22 @@
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -1567,13 +1678,22 @@
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -1581,13 +1701,22 @@
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1595,13 +1724,16 @@
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1609,13 +1741,16 @@
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>35</v>
@@ -1623,13 +1758,22 @@
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
@@ -1637,13 +1781,22 @@
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -1651,13 +1804,22 @@
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
@@ -1665,13 +1827,22 @@
       <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>43</v>
@@ -1679,13 +1850,22 @@
       <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -1693,13 +1873,22 @@
       <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>47</v>
@@ -1707,13 +1896,22 @@
       <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>49</v>
@@ -1721,13 +1919,22 @@
       <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>51</v>
@@ -1735,13 +1942,22 @@
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
@@ -1749,13 +1965,16 @@
       <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>55</v>
@@ -1763,13 +1982,22 @@
       <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>57</v>
@@ -1777,13 +2005,22 @@
       <c r="D32" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>59</v>
@@ -1791,13 +2028,22 @@
       <c r="D33" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>61</v>
@@ -1805,13 +2051,22 @@
       <c r="D34" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>63</v>
@@ -1819,13 +2074,16 @@
       <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>65</v>
@@ -1833,13 +2091,22 @@
       <c r="D36" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>67</v>
@@ -1847,13 +2114,22 @@
       <c r="D37" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>69</v>
@@ -1861,13 +2137,22 @@
       <c r="D38" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>296</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>71</v>
@@ -1875,13 +2160,22 @@
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>73</v>
@@ -1889,13 +2183,22 @@
       <c r="D40" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>75</v>
@@ -1903,13 +2206,22 @@
       <c r="D41" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>77</v>
@@ -1917,13 +2229,22 @@
       <c r="D42" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>79</v>
@@ -1931,13 +2252,22 @@
       <c r="D43" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>81</v>
@@ -1945,13 +2275,22 @@
       <c r="D44" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>83</v>
@@ -1959,13 +2298,22 @@
       <c r="D45" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>85</v>
@@ -1973,13 +2321,22 @@
       <c r="D46" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>87</v>
@@ -1987,13 +2344,22 @@
       <c r="D47" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>89</v>
@@ -2001,13 +2367,22 @@
       <c r="D48" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>296</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>91</v>
@@ -2015,13 +2390,16 @@
       <c r="D49" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>93</v>
@@ -2029,13 +2407,22 @@
       <c r="D50" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>95</v>
@@ -2043,13 +2430,22 @@
       <c r="D51" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>97</v>
@@ -2057,13 +2453,22 @@
       <c r="D52" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>99</v>
@@ -2071,13 +2476,16 @@
       <c r="D53" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>101</v>
@@ -2085,13 +2493,22 @@
       <c r="D54" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>103</v>
@@ -2099,13 +2516,22 @@
       <c r="D55" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>105</v>
@@ -2113,13 +2539,22 @@
       <c r="D56" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>107</v>
@@ -2127,13 +2562,22 @@
       <c r="D57" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>109</v>
@@ -2141,13 +2585,16 @@
       <c r="D58" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>111</v>
@@ -2155,13 +2602,22 @@
       <c r="D59" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>113</v>
@@ -2169,13 +2625,22 @@
       <c r="D60" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>115</v>
@@ -2183,628 +2648,963 @@
       <c r="D61" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" t="s">
+        <v>296</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>50</v>
       </c>
-      <c r="B62" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="E65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="E67" t="s">
+        <v>296</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
+        <v>296</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E71" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
+        <v>296</v>
+      </c>
+      <c r="F73">
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="E74" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74">
+        <v>73</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="E76" t="s">
+        <v>296</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E77" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E78" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="E79" t="s">
+        <v>296</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="E80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>296</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="E82" t="s">
+        <v>296</v>
+      </c>
+      <c r="F82">
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="E85" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>74</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="E89" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89">
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="E92" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92">
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="E93" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="E94" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="E95" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E96" t="s">
+        <v>296</v>
+      </c>
+      <c r="F96">
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E97" t="s">
+        <v>296</v>
+      </c>
+      <c r="F97">
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>73</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="E99" t="s">
+        <v>296</v>
+      </c>
+      <c r="F99">
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="E100" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="E102" t="s">
+        <v>296</v>
+      </c>
+      <c r="F102">
+        <v>101</v>
+      </c>
+      <c r="G102">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="E103" t="s">
+        <v>296</v>
+      </c>
+      <c r="F103">
+        <v>102</v>
+      </c>
+      <c r="G103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="E104" t="s">
+        <v>296</v>
+      </c>
+      <c r="F104">
+        <v>103</v>
+      </c>
+      <c r="G104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="E105" t="s">
+        <v>296</v>
+      </c>
+      <c r="F105">
+        <v>104</v>
+      </c>
+      <c r="G105">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="E106" t="s">
+        <v>296</v>
+      </c>
+      <c r="F106">
+        <v>105</v>
+      </c>
+      <c r="G106">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F106">
-    <sortCondition ref="C3:C106"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F107">
+    <sortCondition ref="C4:C107"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E07122-40F1-5245-BA56-F3E8799AF9FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAD8D86-6089-974C-A86E-A21A50A16010}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,34 +3615,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2850,11 +3626,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B842E040-F9ED-D94C-8450-AEC383151A2F}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2867,13 +3643,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,13 +4326,13 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3564,12 +4340,12 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -3580,7 +4356,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -3591,7 +4367,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -3602,7 +4378,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -3613,7 +4389,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -3624,7 +4400,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -3635,7 +4411,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -3646,7 +4422,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -3660,7 +4436,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -3674,7 +4450,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -3685,7 +4461,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -3696,7 +4472,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -3707,7 +4483,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -3718,7 +4494,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -3729,7 +4505,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -3740,7 +4516,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -3751,7 +4527,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -3762,7 +4538,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -3773,7 +4549,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -3784,7 +4560,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -3795,7 +4571,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -3806,13 +4582,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3820,7 +4596,7 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3828,12 +4604,12 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -3844,7 +4620,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -3855,7 +4631,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -3866,7 +4642,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -3877,7 +4653,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -3888,7 +4664,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -3905,7 +4681,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -3922,7 +4698,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -3939,7 +4715,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -3950,7 +4726,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -3964,7 +4740,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -3978,7 +4754,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -3995,7 +4771,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -4012,7 +4788,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -4029,7 +4805,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -4040,7 +4816,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -4051,7 +4827,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -4062,7 +4838,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -4076,7 +4852,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -4090,6 +4866,543 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CCCC94-43E8-0A4F-B7D4-9704650BE3AA}">
+  <dimension ref="A1:B106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
